--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741522.8875912968</v>
+        <v>736625.6510033496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737298</v>
+        <v>8186089.907737302</v>
       </c>
     </row>
     <row r="9">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81.76929607876723</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>204.487298272521</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>38.04401443014554</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276111</v>
       </c>
       <c r="T12" t="n">
         <v>153.1433946664671</v>
@@ -1533,7 +1533,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.41190338343304</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>209.7308661601807</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356.5775468724604</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>137.2333028626356</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1700,10 +1700,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>43.73993021098062</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T15" t="n">
         <v>153.1433946664671</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3021387078687</v>
+        <v>125.4758721186939</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.9877681979016</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0607131231338</v>
+        <v>165.6850453792095</v>
       </c>
       <c r="U16" t="n">
         <v>279.9179208068699</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>129.9053338987448</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>121.1399716553991</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>3.166568202456233</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>62.82885394936883</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>15.86252774276066</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
         <v>153.1433946664671</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>48.88667419418822</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2019,7 +2019,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9179208068699</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>93.09295605504091</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>99.56104877841859</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>142.8494248216032</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276134</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U21" t="n">
         <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
-        <v>131.1081627585004</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>124.4208149013371</v>
       </c>
       <c r="H22" t="n">
-        <v>63.62240572150164</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S22" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9179208068699</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>328.5969480707425</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.5056876845219</v>
+        <v>328.2458591778582</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.3338820000421</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>94.35880701496835</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>397.412028855944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>180.8766837957199</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>61.67341620309591</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>99.74431458894047</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.0607131231338</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>290.8233896232281</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
-        <v>161.6478137512301</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2857,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2967,7 +2967,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
-        <v>9.900457642988084</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.900457642987829</v>
       </c>
       <c r="S31" t="n">
         <v>167.8355178356165</v>
@@ -3031,19 +3031,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>344.6466764958375</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>92.92969260397705</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>141.8895372612675</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3195,19 +3195,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>126.1391045943609</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3268,19 +3268,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>182.1946509128355</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>94.63621553299484</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3021387078687</v>
+        <v>125.4758721186939</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3410,7 +3410,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>94.09647306409975</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>94.6634607360177</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9179208068699</v>
+        <v>141.2018885458451</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>366.528334262881</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>213.969302287628</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>10.06807673469161</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
@@ -3593,13 +3593,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>38.0440144301451</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>88.51533366655558</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,10 +3675,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>16.30423848716915</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.06608657925235</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>127.824196953196</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H42" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>5.222545353539378</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U42" t="n">
         <v>195.3021387078687</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>122.6592214093334</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -3900,10 +3900,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3915,10 +3915,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>69.0468959930476</v>
       </c>
       <c r="I43" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S43" t="n">
-        <v>59.01237465064898</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>221.0438639442465</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.81217157528254</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>38.04401443014554</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276044</v>
       </c>
       <c r="T45" t="n">
         <v>153.1433946664671</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>29.50580656868703</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>44.5578363785994</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.74099050576837</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="C11" t="n">
-        <v>35.74099050576837</v>
+        <v>1148.670486865882</v>
       </c>
       <c r="D11" t="n">
-        <v>35.74099050576837</v>
+        <v>1148.670486865882</v>
       </c>
       <c r="E11" t="n">
-        <v>35.74099050576837</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="F11" t="n">
-        <v>35.74099050576837</v>
+        <v>734.3302713827786</v>
       </c>
       <c r="G11" t="n">
-        <v>35.74099050576837</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576837</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J11" t="n">
-        <v>142.5703854689896</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446586</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P11" t="n">
         <v>1601.546999092373</v>
@@ -5065,28 +5065,28 @@
         <v>1740.697478824117</v>
       </c>
       <c r="R11" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U11" t="n">
-        <v>1787.049525288418</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="V11" t="n">
-        <v>1437.211970624899</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="W11" t="n">
-        <v>1053.451669760068</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="X11" t="n">
-        <v>846.8988432221677</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="Y11" t="n">
-        <v>445.9621701702578</v>
+        <v>1231.265735430293</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>445.5543329492897</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C12" t="n">
-        <v>311.5592616982354</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D12" t="n">
-        <v>194.6621039176278</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E12" t="n">
-        <v>74.16928790995578</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F12" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G12" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I12" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J12" t="n">
-        <v>91.74661827365898</v>
+        <v>91.74661827365901</v>
       </c>
       <c r="K12" t="n">
-        <v>219.1218605877236</v>
+        <v>219.1218605877237</v>
       </c>
       <c r="L12" t="n">
-        <v>409.1542221280458</v>
+        <v>409.1542221280459</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4489796369294</v>
+        <v>638.7525564079365</v>
       </c>
       <c r="N12" t="n">
-        <v>1293.743737145813</v>
+        <v>880.2631765959275</v>
       </c>
       <c r="O12" t="n">
-        <v>1524.712592344458</v>
+        <v>1092.199194082995</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.980039158655</v>
+        <v>1254.466640897193</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R12" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V12" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W12" t="n">
-        <v>921.5853070821535</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X12" t="n">
-        <v>745.2593252210463</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y12" t="n">
-        <v>585.8573655848763</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.8995110188642</v>
+        <v>371.4654888334606</v>
       </c>
       <c r="C13" t="n">
-        <v>474.8061385805808</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="D13" t="n">
-        <v>315.3114939034908</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="E13" t="n">
-        <v>315.3114939034908</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="F13" t="n">
-        <v>150.680368014082</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G13" t="n">
-        <v>150.680368014082</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H13" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J13" t="n">
-        <v>51.86344281542365</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K13" t="n">
-        <v>110.3049721335449</v>
+        <v>134.676027736963</v>
       </c>
       <c r="L13" t="n">
-        <v>451.4831578130892</v>
+        <v>535.5520238542572</v>
       </c>
       <c r="M13" t="n">
-        <v>889.3896932141681</v>
+        <v>628.4922097410506</v>
       </c>
       <c r="N13" t="n">
-        <v>1315.336568651598</v>
+        <v>1054.43908517848</v>
       </c>
       <c r="O13" t="n">
-        <v>1708.927989328892</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P13" t="n">
         <v>1768.392458898498</v>
       </c>
       <c r="Q13" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R13" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S13" t="n">
-        <v>1575.748442655586</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T13" t="n">
-        <v>1575.748442655586</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U13" t="n">
-        <v>1575.748442655586</v>
+        <v>1575.200165530661</v>
       </c>
       <c r="V13" t="n">
-        <v>1575.748442655586</v>
+        <v>1301.314420470183</v>
       </c>
       <c r="W13" t="n">
-        <v>1296.67877816446</v>
+        <v>1022.244755979057</v>
       </c>
       <c r="X13" t="n">
-        <v>1058.334916024144</v>
+        <v>783.9008938387403</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.5992174129086</v>
+        <v>559.165195227505</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.74099050576837</v>
+        <v>1264.669726582541</v>
       </c>
       <c r="C14" t="n">
-        <v>35.74099050576837</v>
+        <v>854.5451358958112</v>
       </c>
       <c r="D14" t="n">
-        <v>35.74099050576837</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="E14" t="n">
         <v>35.74099050576837</v>
@@ -5278,7 +5278,7 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J14" t="n">
-        <v>142.5703854689896</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K14" t="n">
         <v>323.229055744659</v>
@@ -5287,7 +5287,7 @@
         <v>562.2973247064785</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152971</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N14" t="n">
         <v>1126.349039004049</v>
@@ -5311,19 +5311,19 @@
         <v>1787.049525288418</v>
       </c>
       <c r="U14" t="n">
-        <v>1530.161584140379</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="V14" t="n">
-        <v>1180.32402947686</v>
+        <v>1648.430027447372</v>
       </c>
       <c r="W14" t="n">
-        <v>796.5637286120284</v>
+        <v>1264.669726582541</v>
       </c>
       <c r="X14" t="n">
-        <v>395.9203307809809</v>
+        <v>1264.669726582541</v>
       </c>
       <c r="Y14" t="n">
-        <v>395.9203307809809</v>
+        <v>1264.669726582541</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>532.1086706583154</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C15" t="n">
-        <v>532.1086706583154</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D15" t="n">
-        <v>415.2115128777078</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E15" t="n">
-        <v>294.7186968700358</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F15" t="n">
-        <v>185.7588170525404</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G15" t="n">
-        <v>79.92273819362758</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H15" t="n">
         <v>35.74099050576837</v>
@@ -5357,52 +5357,52 @@
         <v>54.34778796170226</v>
       </c>
       <c r="J15" t="n">
-        <v>271.9976205665607</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K15" t="n">
-        <v>399.3728628806253</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L15" t="n">
-        <v>841.6676203895089</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M15" t="n">
-        <v>1071.265954669399</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N15" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O15" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P15" t="n">
-        <v>1686.980039158655</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q15" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S15" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T15" t="n">
-        <v>1632.359227645522</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U15" t="n">
-        <v>1435.084340061817</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V15" t="n">
-        <v>1221.37281305485</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W15" t="n">
-        <v>1008.139644791179</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X15" t="n">
-        <v>831.813662930072</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y15" t="n">
-        <v>672.4117032939021</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>289.8903109095207</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="C16" t="n">
-        <v>289.8903109095207</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="D16" t="n">
-        <v>289.8903109095207</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="E16" t="n">
         <v>202.0238783863878</v>
@@ -5436,25 +5436,25 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J16" t="n">
-        <v>51.86344281542365</v>
+        <v>116.86480644676</v>
       </c>
       <c r="K16" t="n">
-        <v>316.585165719259</v>
+        <v>381.5865293505954</v>
       </c>
       <c r="L16" t="n">
-        <v>403.48205060153</v>
+        <v>782.4625254678895</v>
       </c>
       <c r="M16" t="n">
-        <v>841.3885860026089</v>
+        <v>1220.369060868968</v>
       </c>
       <c r="N16" t="n">
-        <v>1267.335461440038</v>
+        <v>1630.411328070338</v>
       </c>
       <c r="O16" t="n">
-        <v>1345.852122698592</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P16" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q16" t="n">
         <v>1787.049525288418</v>
@@ -5463,25 +5463,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S16" t="n">
-        <v>1787.049525288418</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T16" t="n">
-        <v>1551.634663547879</v>
+        <v>1450.160067495665</v>
       </c>
       <c r="U16" t="n">
-        <v>1268.889288995485</v>
+        <v>1167.414692943271</v>
       </c>
       <c r="V16" t="n">
-        <v>995.0035439350074</v>
+        <v>893.5289478827931</v>
       </c>
       <c r="W16" t="n">
-        <v>715.9338794438818</v>
+        <v>614.4592833916674</v>
       </c>
       <c r="X16" t="n">
-        <v>477.5900173035652</v>
+        <v>614.4592833916674</v>
       </c>
       <c r="Y16" t="n">
-        <v>477.5900173035652</v>
+        <v>389.7235847804322</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1700.918407900826</v>
+        <v>975.8916725720189</v>
       </c>
       <c r="C17" t="n">
-        <v>1700.918407900826</v>
+        <v>565.767081885289</v>
       </c>
       <c r="D17" t="n">
-        <v>1569.700898912194</v>
+        <v>161.3031519783495</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.360683429091</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="F17" t="n">
-        <v>734.3302713827786</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G17" t="n">
-        <v>327.7588696812413</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H17" t="n">
         <v>38.93954424562315</v>
@@ -5542,25 +5542,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="U17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="V17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="W17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="X17" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="Y17" t="n">
-        <v>1700.918407900826</v>
+        <v>1386.112852236508</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>516.0859153625977</v>
+        <v>445.5543329492897</v>
       </c>
       <c r="C18" t="n">
         <v>382.0908441115434</v>
@@ -5591,55 +5591,55 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J18" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K18" t="n">
-        <v>651.6352588491867</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L18" t="n">
-        <v>841.6676203895089</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M18" t="n">
-        <v>1071.265954669399</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N18" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O18" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P18" t="n">
-        <v>1686.980039158655</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.026769992701</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T18" t="n">
-        <v>1616.336472349805</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U18" t="n">
-        <v>1419.061584766099</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V18" t="n">
-        <v>1205.350057759133</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W18" t="n">
-        <v>992.1168894954615</v>
+        <v>921.5853070821535</v>
       </c>
       <c r="X18" t="n">
-        <v>815.7909076343543</v>
+        <v>745.2593252210463</v>
       </c>
       <c r="Y18" t="n">
-        <v>656.3889479981843</v>
+        <v>585.8573655848763</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>587.1288556981085</v>
+        <v>668.57129166045</v>
       </c>
       <c r="C19" t="n">
-        <v>416.035483259825</v>
+        <v>668.57129166045</v>
       </c>
       <c r="D19" t="n">
-        <v>416.035483259825</v>
+        <v>668.57129166045</v>
       </c>
       <c r="E19" t="n">
-        <v>366.6550042757965</v>
+        <v>507.6604765287695</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0238783863878</v>
+        <v>343.0293506393608</v>
       </c>
       <c r="G19" t="n">
-        <v>35.74099050576837</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H19" t="n">
         <v>35.74099050576837</v>
@@ -5676,19 +5676,19 @@
         <v>51.86344281542365</v>
       </c>
       <c r="K19" t="n">
-        <v>134.6760277369626</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L19" t="n">
-        <v>535.5520238542567</v>
+        <v>197.2018570158159</v>
       </c>
       <c r="M19" t="n">
-        <v>628.4922097410501</v>
+        <v>635.1083924168947</v>
       </c>
       <c r="N19" t="n">
-        <v>1054.43908517848</v>
+        <v>1061.055267854324</v>
       </c>
       <c r="O19" t="n">
-        <v>1448.030505855774</v>
+        <v>1454.646688531618</v>
       </c>
       <c r="P19" t="n">
         <v>1768.392458898498</v>
@@ -5697,28 +5697,28 @@
         <v>1787.049525288418</v>
       </c>
       <c r="R19" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="S19" t="n">
-        <v>1617.518699191836</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="T19" t="n">
-        <v>1382.103837451297</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="U19" t="n">
-        <v>1099.358462898903</v>
+        <v>1462.533894199775</v>
       </c>
       <c r="V19" t="n">
-        <v>825.4727178384251</v>
+        <v>1188.648149139297</v>
       </c>
       <c r="W19" t="n">
-        <v>825.4727178384251</v>
+        <v>1188.648149139297</v>
       </c>
       <c r="X19" t="n">
-        <v>587.1288556981085</v>
+        <v>950.3042869989802</v>
       </c>
       <c r="Y19" t="n">
-        <v>587.1288556981085</v>
+        <v>856.2709980544944</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1700.918407900826</v>
+        <v>557.3381184898774</v>
       </c>
       <c r="C20" t="n">
-        <v>1700.918407900826</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.454477993886</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="E20" t="n">
-        <v>1152.162129689236</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F20" t="n">
-        <v>731.1317176429238</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G20" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K20" t="n">
         <v>323.2290557446587</v>
@@ -5776,28 +5776,28 @@
         <v>1740.697478824117</v>
       </c>
       <c r="R20" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S20" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.918407900826</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="U20" t="n">
-        <v>1700.918407900826</v>
+        <v>1317.396852817886</v>
       </c>
       <c r="V20" t="n">
-        <v>1700.918407900826</v>
+        <v>967.5592981543668</v>
       </c>
       <c r="W20" t="n">
-        <v>1700.918407900826</v>
+        <v>967.5592981543668</v>
       </c>
       <c r="X20" t="n">
-        <v>1700.918407900826</v>
+        <v>967.5592981543668</v>
       </c>
       <c r="Y20" t="n">
-        <v>1700.918407900826</v>
+        <v>967.5592981543668</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>681.5236699643028</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C21" t="n">
-        <v>547.5285987132485</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6314409326409</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E21" t="n">
-        <v>310.1386249249689</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F21" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G21" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J21" t="n">
-        <v>91.74661827365898</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K21" t="n">
-        <v>219.1218605877236</v>
+        <v>481.3970620182908</v>
       </c>
       <c r="L21" t="n">
-        <v>409.1542221280458</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M21" t="n">
-        <v>840.9072146475831</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.417834835574</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O21" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P21" t="n">
-        <v>1686.980039158655</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q21" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R21" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T21" t="n">
-        <v>1700.495187579393</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.220299995687</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V21" t="n">
-        <v>1370.787812360838</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W21" t="n">
-        <v>1157.554644097167</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X21" t="n">
-        <v>981.2286622360594</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y21" t="n">
-        <v>821.8267025998895</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.2889346707329</v>
+        <v>497.1430796428921</v>
       </c>
       <c r="C22" t="n">
-        <v>266.2889346707329</v>
+        <v>326.0497072046086</v>
       </c>
       <c r="D22" t="n">
-        <v>266.2889346707329</v>
+        <v>326.0497072046086</v>
       </c>
       <c r="E22" t="n">
-        <v>266.2889346707329</v>
+        <v>326.0497072046086</v>
       </c>
       <c r="F22" t="n">
-        <v>266.2889346707329</v>
+        <v>161.4185813151998</v>
       </c>
       <c r="G22" t="n">
-        <v>100.0060467901135</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J22" t="n">
-        <v>51.86344281542365</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K22" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L22" t="n">
-        <v>197.2018570158159</v>
+        <v>511.180968250839</v>
       </c>
       <c r="M22" t="n">
-        <v>628.4922097410501</v>
+        <v>949.0875036519178</v>
       </c>
       <c r="N22" t="n">
-        <v>1054.43908517848</v>
+        <v>1375.034379089347</v>
       </c>
       <c r="O22" t="n">
-        <v>1448.030505855774</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P22" t="n">
-        <v>1768.392458898498</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q22" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.279268752168</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655586</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915047</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.588206362653</v>
+        <v>1462.533894199775</v>
       </c>
       <c r="V22" t="n">
-        <v>783.7024613021752</v>
+        <v>1188.648149139297</v>
       </c>
       <c r="W22" t="n">
-        <v>504.6327968110495</v>
+        <v>909.5784846481718</v>
       </c>
       <c r="X22" t="n">
-        <v>266.2889346707329</v>
+        <v>909.5784846481718</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.2889346707329</v>
+        <v>684.8427860369364</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>1617.613383394351</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.697274231985</v>
+        <v>1207.488792707621</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.697274231985</v>
+        <v>1207.488792707621</v>
       </c>
       <c r="E23" t="n">
-        <v>871.3570587488814</v>
+        <v>793.1485772245178</v>
       </c>
       <c r="F23" t="n">
-        <v>450.3266467025689</v>
+        <v>372.1181651782053</v>
       </c>
       <c r="G23" t="n">
-        <v>43.75524500103159</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H23" t="n">
-        <v>43.75524500103159</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I23" t="n">
         <v>40.55669126117681</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243982</v>
+        <v>383.3554232394118</v>
       </c>
       <c r="K23" t="n">
-        <v>328.0447565000671</v>
+        <v>564.0140935150807</v>
       </c>
       <c r="L23" t="n">
-        <v>567.1130254618867</v>
+        <v>803.0823624769002</v>
       </c>
       <c r="M23" t="n">
-        <v>845.9486603707054</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N23" t="n">
-        <v>1131.164739759457</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O23" t="n">
         <v>1631.05475196024</v>
@@ -6047,16 +6047,16 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880497</v>
       </c>
       <c r="E24" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803777</v>
       </c>
       <c r="F24" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628822</v>
       </c>
       <c r="G24" t="n">
         <v>100.1583670039693</v>
@@ -6068,28 +6068,28 @@
         <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>135.4704098926831</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K24" t="n">
-        <v>262.8456522067477</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8780137470699</v>
+        <v>676.2451243140214</v>
       </c>
       <c r="M24" t="n">
-        <v>682.4763480269604</v>
+        <v>905.8434585939119</v>
       </c>
       <c r="N24" t="n">
-        <v>923.9869682149513</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O24" t="n">
-        <v>1425.876022572014</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P24" t="n">
-        <v>1927.765076929077</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q24" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.1085303661695</v>
+        <v>787.1880911177213</v>
       </c>
       <c r="C25" t="n">
-        <v>153.015157927886</v>
+        <v>787.1880911177213</v>
       </c>
       <c r="D25" t="n">
-        <v>40.55669126117681</v>
+        <v>627.6934464406313</v>
       </c>
       <c r="E25" t="n">
-        <v>40.55669126117681</v>
+        <v>466.7826313089508</v>
       </c>
       <c r="F25" t="n">
-        <v>40.55669126117681</v>
+        <v>302.151505419542</v>
       </c>
       <c r="G25" t="n">
-        <v>40.55669126117681</v>
+        <v>135.8686175389226</v>
       </c>
       <c r="H25" t="n">
         <v>40.55669126117681</v>
@@ -6147,25 +6147,25 @@
         <v>40.55669126117681</v>
       </c>
       <c r="J25" t="n">
-        <v>56.6791435708321</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K25" t="n">
-        <v>321.4008664746675</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L25" t="n">
-        <v>722.2768625919616</v>
+        <v>787.2782262232979</v>
       </c>
       <c r="M25" t="n">
-        <v>1160.18339799304</v>
+        <v>880.2184121100913</v>
       </c>
       <c r="N25" t="n">
-        <v>1586.13027343047</v>
+        <v>1168.950162743065</v>
       </c>
       <c r="O25" t="n">
-        <v>1949.713027099314</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P25" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463083</v>
       </c>
       <c r="Q25" t="n">
         <v>2027.83456305884</v>
@@ -6189,10 +6189,10 @@
         <v>787.1880911177213</v>
       </c>
       <c r="X25" t="n">
-        <v>548.8442289774048</v>
+        <v>787.1880911177213</v>
       </c>
       <c r="Y25" t="n">
-        <v>324.1085303661695</v>
+        <v>787.1880911177213</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1277.353610564273</v>
+        <v>879.1258725304474</v>
       </c>
       <c r="C26" t="n">
-        <v>1277.353610564273</v>
+        <v>879.1258725304474</v>
       </c>
       <c r="D26" t="n">
-        <v>1277.353610564273</v>
+        <v>879.1258725304474</v>
       </c>
       <c r="E26" t="n">
-        <v>863.0133950811701</v>
+        <v>464.785657047344</v>
       </c>
       <c r="F26" t="n">
-        <v>441.9829830348576</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="G26" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="H26" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="I26" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632703</v>
       </c>
       <c r="K26" t="n">
-        <v>328.0447565000671</v>
+        <v>437.0184264389393</v>
       </c>
       <c r="L26" t="n">
-        <v>567.1130254618867</v>
+        <v>676.0866954007588</v>
       </c>
       <c r="M26" t="n">
-        <v>845.9486603707054</v>
+        <v>954.9223303095775</v>
       </c>
       <c r="N26" t="n">
-        <v>1131.164739759457</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O26" t="n">
-        <v>1631.054751960239</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P26" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q26" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R26" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S26" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T26" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U26" t="n">
-        <v>2027.83456305884</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="V26" t="n">
-        <v>1677.997008395321</v>
+        <v>1289.347052194937</v>
       </c>
       <c r="W26" t="n">
-        <v>1677.997008395321</v>
+        <v>1289.347052194937</v>
       </c>
       <c r="X26" t="n">
-        <v>1277.353610564273</v>
+        <v>1289.347052194937</v>
       </c>
       <c r="Y26" t="n">
-        <v>1277.353610564273</v>
+        <v>1289.347052194937</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C27" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D27" t="n">
         <v>435.4471416880494</v>
@@ -6296,7 +6296,7 @@
         <v>205.994445862882</v>
       </c>
       <c r="G27" t="n">
-        <v>100.1583670039693</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
         <v>40.5566912611768</v>
@@ -6305,25 +6305,25 @@
         <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>115.1691164850013</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>242.5443587990659</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>432.5767203393881</v>
+        <v>676.2451243140214</v>
       </c>
       <c r="M27" t="n">
-        <v>662.1750546192786</v>
+        <v>905.8434585939119</v>
       </c>
       <c r="N27" t="n">
-        <v>903.6856748072695</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1115.621692294337</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1433.825203448322</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
         <v>1928.049576833459</v>
@@ -6338,7 +6338,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V27" t="n">
         <v>1375.603513116246</v>
@@ -6347,10 +6347,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>599.4883847236767</v>
+        <v>305.9396500687072</v>
       </c>
       <c r="C28" t="n">
-        <v>428.3950122853932</v>
+        <v>305.9396500687072</v>
       </c>
       <c r="D28" t="n">
-        <v>428.3950122853932</v>
+        <v>305.9396500687072</v>
       </c>
       <c r="E28" t="n">
-        <v>267.4841971537127</v>
+        <v>305.9396500687072</v>
       </c>
       <c r="F28" t="n">
-        <v>102.853071264304</v>
+        <v>141.3085241792985</v>
       </c>
       <c r="G28" t="n">
-        <v>40.5566912611768</v>
+        <v>141.3085241792985</v>
       </c>
       <c r="H28" t="n">
         <v>40.5566912611768</v>
@@ -6384,25 +6384,25 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67914357083208</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1206728889533</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L28" t="n">
-        <v>515.9966690062474</v>
+        <v>787.2782262232979</v>
       </c>
       <c r="M28" t="n">
-        <v>953.9032044073263</v>
+        <v>880.2184121100913</v>
       </c>
       <c r="N28" t="n">
-        <v>1379.850079844756</v>
+        <v>1168.950162743064</v>
       </c>
       <c r="O28" t="n">
-        <v>1773.44150052205</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P28" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
@@ -6411,25 +6411,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>1858.303736962258</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.888875221719</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U28" t="n">
-        <v>1340.143500669325</v>
+        <v>1509.674326765907</v>
       </c>
       <c r="V28" t="n">
-        <v>1066.257755608847</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="W28" t="n">
-        <v>787.1880911177211</v>
+        <v>956.7189172143035</v>
       </c>
       <c r="X28" t="n">
-        <v>787.1880911177211</v>
+        <v>718.3750550739869</v>
       </c>
       <c r="Y28" t="n">
-        <v>787.1880911177211</v>
+        <v>493.6393564627516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>329.3760166967949</v>
+        <v>337.5162446204539</v>
       </c>
       <c r="C29" t="n">
-        <v>329.3760166967949</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="D29" t="n">
-        <v>329.3760166967949</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="E29" t="n">
-        <v>329.3760166967949</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="F29" t="n">
-        <v>329.3760166967949</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="G29" t="n">
-        <v>329.3760166967949</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="H29" t="n">
-        <v>40.55669126117681</v>
+        <v>43.75524500103158</v>
       </c>
       <c r="I29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632703</v>
       </c>
       <c r="K29" t="n">
-        <v>328.0447565000671</v>
+        <v>437.0184264389393</v>
       </c>
       <c r="L29" t="n">
-        <v>567.1130254618867</v>
+        <v>676.0866954007588</v>
       </c>
       <c r="M29" t="n">
-        <v>845.9486603707054</v>
+        <v>954.9223303095775</v>
       </c>
       <c r="N29" t="n">
-        <v>1131.164739759457</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O29" t="n">
-        <v>1395.085414945226</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P29" t="n">
-        <v>1606.362699847782</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T29" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U29" t="n">
-        <v>1864.553943108103</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="V29" t="n">
-        <v>1514.716388444584</v>
+        <v>1122.213218537195</v>
       </c>
       <c r="W29" t="n">
-        <v>1130.956087579752</v>
+        <v>738.4529176723638</v>
       </c>
       <c r="X29" t="n">
-        <v>730.3126897487048</v>
+        <v>738.4529176723638</v>
       </c>
       <c r="Y29" t="n">
-        <v>329.3760166967949</v>
+        <v>337.5162446204539</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
         <v>435.4471416880494</v>
@@ -6536,31 +6536,31 @@
         <v>100.158367003969</v>
       </c>
       <c r="H30" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I30" t="n">
         <v>59.1634887171107</v>
       </c>
       <c r="J30" t="n">
-        <v>115.1691164850013</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4804231388539</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L30" t="n">
-        <v>588.5127846791761</v>
+        <v>676.2451243140214</v>
       </c>
       <c r="M30" t="n">
-        <v>818.1111189590666</v>
+        <v>905.8434585939119</v>
       </c>
       <c r="N30" t="n">
-        <v>1059.621739147057</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.557756634125</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P30" t="n">
-        <v>1433.825203448323</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q30" t="n">
         <v>1928.049576833459</v>
@@ -6569,10 +6569,10 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S30" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T30" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U30" t="n">
         <v>1589.315040123213</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>548.8442289774048</v>
+        <v>538.8437667117603</v>
       </c>
       <c r="C31" t="n">
-        <v>377.7508565391213</v>
+        <v>367.7503942734768</v>
       </c>
       <c r="D31" t="n">
-        <v>377.7508565391213</v>
+        <v>367.7503942734768</v>
       </c>
       <c r="E31" t="n">
-        <v>216.8400414074408</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="F31" t="n">
-        <v>216.8400414074408</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G31" t="n">
-        <v>50.55715352682134</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J31" t="n">
-        <v>56.6791435708321</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1206728889533</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L31" t="n">
-        <v>515.9966690062474</v>
+        <v>787.2782262232979</v>
       </c>
       <c r="M31" t="n">
-        <v>953.9032044073263</v>
+        <v>880.2184121100913</v>
       </c>
       <c r="N31" t="n">
-        <v>1379.850079844756</v>
+        <v>1168.950162743064</v>
       </c>
       <c r="O31" t="n">
-        <v>1773.44150052205</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P31" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R31" t="n">
-        <v>2027.83456305884</v>
+        <v>2017.834100793196</v>
       </c>
       <c r="S31" t="n">
-        <v>1858.303736962258</v>
+        <v>1848.303274696613</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.888875221719</v>
+        <v>1612.888412956074</v>
       </c>
       <c r="U31" t="n">
-        <v>1340.143500669325</v>
+        <v>1330.143038403681</v>
       </c>
       <c r="V31" t="n">
-        <v>1066.257755608847</v>
+        <v>1056.257293343202</v>
       </c>
       <c r="W31" t="n">
-        <v>787.1880911177213</v>
+        <v>777.1876288520768</v>
       </c>
       <c r="X31" t="n">
-        <v>548.8442289774048</v>
+        <v>538.8437667117603</v>
       </c>
       <c r="Y31" t="n">
-        <v>548.8442289774048</v>
+        <v>538.8437667117603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1617.613383394351</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="C32" t="n">
-        <v>1207.488792707621</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="D32" t="n">
-        <v>803.0248628006816</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="E32" t="n">
-        <v>388.6846473175783</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="F32" t="n">
-        <v>40.55669126117681</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
-        <v>256.3597561632706</v>
+        <v>147.3860862243982</v>
       </c>
       <c r="K32" t="n">
-        <v>437.0184264389395</v>
+        <v>328.0447565000671</v>
       </c>
       <c r="L32" t="n">
-        <v>676.086695400759</v>
+        <v>567.1130254618867</v>
       </c>
       <c r="M32" t="n">
-        <v>954.9223303095778</v>
+        <v>1069.00207981895</v>
       </c>
       <c r="N32" t="n">
-        <v>1240.13840969833</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O32" t="n">
-        <v>1504.059084884098</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P32" t="n">
-        <v>1715.336369786654</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q32" t="n">
-        <v>1854.486849518398</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R32" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.83456305884</v>
+        <v>1847.835069303594</v>
       </c>
       <c r="U32" t="n">
-        <v>2027.83456305884</v>
+        <v>1590.947128155554</v>
       </c>
       <c r="V32" t="n">
-        <v>2027.83456305884</v>
+        <v>1241.109573492035</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.83456305884</v>
+        <v>857.3492726272036</v>
       </c>
       <c r="X32" t="n">
-        <v>2027.83456305884</v>
+        <v>857.3492726272036</v>
       </c>
       <c r="Y32" t="n">
-        <v>2027.83456305884</v>
+        <v>857.3492726272036</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
         <v>435.4471416880494</v>
@@ -6773,7 +6773,7 @@
         <v>100.1583670039693</v>
       </c>
       <c r="H33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
         <v>59.1634887171107</v>
@@ -6782,40 +6782,40 @@
         <v>358.8375204596346</v>
       </c>
       <c r="K33" t="n">
-        <v>486.4501396158353</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L33" t="n">
-        <v>676.4825011561575</v>
+        <v>676.2451243140214</v>
       </c>
       <c r="M33" t="n">
-        <v>906.080835436048</v>
+        <v>905.8434585939119</v>
       </c>
       <c r="N33" t="n">
-        <v>1147.591455624039</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O33" t="n">
-        <v>1359.527473111106</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P33" t="n">
-        <v>1521.794919925304</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S33" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T33" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W33" t="n">
         <v>1162.370344852575</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>824.0998863616404</v>
+        <v>930.3147806114682</v>
       </c>
       <c r="C34" t="n">
-        <v>653.0065139233569</v>
+        <v>759.2214081731847</v>
       </c>
       <c r="D34" t="n">
-        <v>493.5118692462669</v>
+        <v>599.7267634960947</v>
       </c>
       <c r="E34" t="n">
-        <v>332.6010541145864</v>
+        <v>599.7267634960947</v>
       </c>
       <c r="F34" t="n">
-        <v>167.9699282251777</v>
+        <v>435.095637606686</v>
       </c>
       <c r="G34" t="n">
-        <v>40.55669126117681</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="H34" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J34" t="n">
         <v>121.6805072021685</v>
       </c>
       <c r="K34" t="n">
-        <v>180.1220365202897</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>580.9980326375838</v>
+        <v>787.2782262232979</v>
       </c>
       <c r="M34" t="n">
-        <v>1018.904568038663</v>
+        <v>1225.184761624377</v>
       </c>
       <c r="N34" t="n">
-        <v>1444.851443476092</v>
+        <v>1610.298882367642</v>
       </c>
       <c r="O34" t="n">
-        <v>1838.442864153386</v>
+        <v>1688.815543626195</v>
       </c>
       <c r="P34" t="n">
         <v>2009.17749666892</v>
@@ -6882,28 +6882,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R34" t="n">
-        <v>2027.83456305884</v>
+        <v>1986.06430652259</v>
       </c>
       <c r="S34" t="n">
-        <v>2027.83456305884</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="T34" t="n">
-        <v>2027.83456305884</v>
+        <v>1581.118618685469</v>
       </c>
       <c r="U34" t="n">
-        <v>2027.83456305884</v>
+        <v>1298.373244133075</v>
       </c>
       <c r="V34" t="n">
-        <v>1753.948817998362</v>
+        <v>1298.373244133075</v>
       </c>
       <c r="W34" t="n">
-        <v>1474.879153507237</v>
+        <v>1298.373244133075</v>
       </c>
       <c r="X34" t="n">
-        <v>1236.53529136692</v>
+        <v>1298.373244133075</v>
       </c>
       <c r="Y34" t="n">
-        <v>1011.799592755685</v>
+        <v>1073.637545521839</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>626.3473931293618</v>
+        <v>1281.236208721914</v>
       </c>
       <c r="C35" t="n">
-        <v>442.3123922073057</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="D35" t="n">
-        <v>442.3123922073057</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="E35" t="n">
-        <v>442.3123922073057</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F35" t="n">
-        <v>442.3123922073057</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J35" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689897</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446587</v>
       </c>
       <c r="L35" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064782</v>
       </c>
       <c r="M35" t="n">
-        <v>841.1329596152967</v>
+        <v>841.132959615297</v>
       </c>
       <c r="N35" t="n">
         <v>1126.349039004049</v>
@@ -6958,7 +6958,7 @@
         <v>1601.546999092373</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.697478824116</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R35" t="n">
         <v>1787.049525288418</v>
@@ -6967,22 +6967,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T35" t="n">
-        <v>1787.049525288418</v>
+        <v>1691.457388386403</v>
       </c>
       <c r="U35" t="n">
-        <v>1787.049525288418</v>
+        <v>1691.457388386403</v>
       </c>
       <c r="V35" t="n">
-        <v>1437.211970624899</v>
+        <v>1691.457388386403</v>
       </c>
       <c r="W35" t="n">
-        <v>1437.211970624899</v>
+        <v>1691.457388386403</v>
       </c>
       <c r="X35" t="n">
-        <v>1036.568572793851</v>
+        <v>1691.457388386403</v>
       </c>
       <c r="Y35" t="n">
-        <v>1036.568572793851</v>
+        <v>1691.457388386403</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>681.5236699643028</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C36" t="n">
-        <v>547.5285987132485</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D36" t="n">
-        <v>430.6314409326409</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E36" t="n">
-        <v>310.1386249249688</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F36" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G36" t="n">
-        <v>95.34266624856058</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576836</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J36" t="n">
-        <v>91.74661827365897</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K36" t="n">
-        <v>534.0413757825424</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L36" t="n">
-        <v>753.6979039125272</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M36" t="n">
-        <v>983.2962381924177</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O36" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P36" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q36" t="n">
-        <v>1687.264539063036</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R36" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579392</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T36" t="n">
-        <v>1700.495187579392</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.220299995686</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V36" t="n">
-        <v>1289.50877298872</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W36" t="n">
-        <v>1076.275604725049</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X36" t="n">
-        <v>981.2286622360594</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y36" t="n">
-        <v>821.8267025998895</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>206.8343629440519</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="C37" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="D37" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="E37" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="F37" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G37" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542364</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K37" t="n">
-        <v>110.3049721335449</v>
+        <v>316.585165719259</v>
       </c>
       <c r="L37" t="n">
-        <v>197.2018570158159</v>
+        <v>717.4611618365532</v>
       </c>
       <c r="M37" t="n">
-        <v>635.1083924168947</v>
+        <v>1149.327310401539</v>
       </c>
       <c r="N37" t="n">
-        <v>1061.055267854324</v>
+        <v>1243.239884391383</v>
       </c>
       <c r="O37" t="n">
-        <v>1454.646688531618</v>
+        <v>1321.756545649936</v>
       </c>
       <c r="P37" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q37" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S37" t="n">
-        <v>1649.659611443059</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T37" t="n">
-        <v>1414.24474970252</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U37" t="n">
-        <v>1131.499375150126</v>
+        <v>1239.475667202968</v>
       </c>
       <c r="V37" t="n">
-        <v>857.6136300896483</v>
+        <v>965.5899221424904</v>
       </c>
       <c r="W37" t="n">
-        <v>857.6136300896483</v>
+        <v>686.5202576513648</v>
       </c>
       <c r="X37" t="n">
-        <v>619.2697679493316</v>
+        <v>448.1763955110481</v>
       </c>
       <c r="Y37" t="n">
-        <v>394.5340693380963</v>
+        <v>223.4406968998128</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.74099050576836</v>
+        <v>1159.930943470802</v>
       </c>
       <c r="C38" t="n">
-        <v>35.74099050576836</v>
+        <v>1159.930943470802</v>
       </c>
       <c r="D38" t="n">
-        <v>35.74099050576836</v>
+        <v>1159.930943470802</v>
       </c>
       <c r="E38" t="n">
-        <v>35.74099050576836</v>
+        <v>745.590727987699</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576836</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576836</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H38" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J38" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689897</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446587</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064782</v>
       </c>
       <c r="M38" t="n">
-        <v>841.1329596152966</v>
+        <v>841.132959615297</v>
       </c>
       <c r="N38" t="n">
         <v>1126.349039004049</v>
@@ -7195,7 +7195,7 @@
         <v>1601.546999092373</v>
       </c>
       <c r="Q38" t="n">
-        <v>1740.697478824116</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R38" t="n">
         <v>1787.049525288418</v>
@@ -7207,19 +7207,19 @@
         <v>1787.049525288418</v>
       </c>
       <c r="U38" t="n">
-        <v>1570.918916917077</v>
+        <v>1530.161584140379</v>
       </c>
       <c r="V38" t="n">
-        <v>1221.081362253557</v>
+        <v>1530.161584140379</v>
       </c>
       <c r="W38" t="n">
-        <v>837.3210613887258</v>
+        <v>1530.161584140379</v>
       </c>
       <c r="X38" t="n">
-        <v>436.6776635576783</v>
+        <v>1530.161584140379</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.74099050576836</v>
+        <v>1530.161584140379</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>445.5543329492892</v>
+        <v>575.6875911053899</v>
       </c>
       <c r="C39" t="n">
-        <v>311.5592616982349</v>
+        <v>441.6925198543356</v>
       </c>
       <c r="D39" t="n">
-        <v>194.6621039176273</v>
+        <v>324.795362073728</v>
       </c>
       <c r="E39" t="n">
-        <v>74.16928790995533</v>
+        <v>204.302546066056</v>
       </c>
       <c r="F39" t="n">
-        <v>35.74099050576836</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="G39" t="n">
-        <v>35.74099050576836</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I39" t="n">
-        <v>35.74099050576836</v>
+        <v>54.34778796170226</v>
       </c>
       <c r="J39" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K39" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L39" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M39" t="n">
-        <v>983.2962381924177</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1687.264539063036</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S39" t="n">
-        <v>1700.495187579392</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T39" t="n">
-        <v>1545.804889936496</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.53000235279</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345824</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W39" t="n">
-        <v>921.585307082153</v>
+        <v>921.5853070821535</v>
       </c>
       <c r="X39" t="n">
-        <v>745.2593252210459</v>
+        <v>745.2593252210463</v>
       </c>
       <c r="Y39" t="n">
-        <v>585.8573655848759</v>
+        <v>585.8573655848763</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>621.7857319111569</v>
+        <v>874.6227642876678</v>
       </c>
       <c r="C40" t="n">
-        <v>450.6923594728734</v>
+        <v>703.5293918493843</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2829315268576</v>
+        <v>544.0347471722944</v>
       </c>
       <c r="E40" t="n">
-        <v>200.3721163951771</v>
+        <v>383.1239320406139</v>
       </c>
       <c r="F40" t="n">
-        <v>35.74099050576836</v>
+        <v>218.4928061512051</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576836</v>
+        <v>52.20991827058569</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J40" t="n">
-        <v>51.86344281542364</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K40" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L40" t="n">
-        <v>511.180968250839</v>
+        <v>451.4831578130892</v>
       </c>
       <c r="M40" t="n">
-        <v>949.0875036519178</v>
+        <v>889.3896932141681</v>
       </c>
       <c r="N40" t="n">
-        <v>1375.034379089347</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O40" t="n">
-        <v>1708.927989328891</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P40" t="n">
         <v>1768.392458898498</v>
@@ -7359,25 +7359,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S40" t="n">
-        <v>1787.049525288418</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T40" t="n">
-        <v>1551.634663547879</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U40" t="n">
-        <v>1551.634663547879</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="V40" t="n">
-        <v>1551.634663547879</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.564999056753</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="X40" t="n">
-        <v>1034.221136916437</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="Y40" t="n">
-        <v>809.4854383052012</v>
+        <v>874.6227642876678</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1685.700138628853</v>
+        <v>975.8916725720189</v>
       </c>
       <c r="C41" t="n">
-        <v>1275.575547942124</v>
+        <v>846.7763221142452</v>
       </c>
       <c r="D41" t="n">
-        <v>871.1116180351842</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="E41" t="n">
-        <v>456.7714025520808</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="F41" t="n">
-        <v>35.74099050576837</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G41" t="n">
         <v>35.74099050576837</v>
@@ -7414,19 +7414,19 @@
         <v>142.5703854689896</v>
       </c>
       <c r="K41" t="n">
-        <v>323.229055744659</v>
+        <v>323.2290557446586</v>
       </c>
       <c r="L41" t="n">
-        <v>562.2973247064785</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M41" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152968</v>
       </c>
       <c r="N41" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O41" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189817</v>
       </c>
       <c r="P41" t="n">
         <v>1601.546999092373</v>
@@ -7438,25 +7438,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S41" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T41" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="U41" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="V41" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="W41" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="X41" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="Y41" t="n">
-        <v>1700.918407900826</v>
+        <v>1386.112852236508</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>681.5236699643028</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C42" t="n">
-        <v>547.5285987132485</v>
+        <v>487.9269229704562</v>
       </c>
       <c r="D42" t="n">
-        <v>430.6314409326409</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F42" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G42" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H42" t="n">
         <v>35.74099050576837</v>
@@ -7490,25 +7490,25 @@
         <v>54.34778796170226</v>
       </c>
       <c r="J42" t="n">
-        <v>121.3707848633219</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K42" t="n">
-        <v>563.6655423722054</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L42" t="n">
-        <v>753.6979039125276</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M42" t="n">
-        <v>983.2962381924182</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N42" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O42" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P42" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q42" t="n">
         <v>1687.264539063037</v>
@@ -7520,22 +7520,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T42" t="n">
-        <v>1781.77422695151</v>
+        <v>1632.359227645522</v>
       </c>
       <c r="U42" t="n">
-        <v>1584.499339367804</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V42" t="n">
-        <v>1370.787812360838</v>
+        <v>1311.186136618046</v>
       </c>
       <c r="W42" t="n">
-        <v>1157.554644097167</v>
+        <v>1097.952968354374</v>
       </c>
       <c r="X42" t="n">
-        <v>981.2286622360594</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y42" t="n">
-        <v>821.8267025998895</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>755.8218778723667</v>
+        <v>927.8981759097674</v>
       </c>
       <c r="C43" t="n">
-        <v>755.8218778723667</v>
+        <v>756.8048034714839</v>
       </c>
       <c r="D43" t="n">
-        <v>755.8218778723667</v>
+        <v>597.3101587943938</v>
       </c>
       <c r="E43" t="n">
-        <v>594.9110627406862</v>
+        <v>436.3993436627133</v>
       </c>
       <c r="F43" t="n">
-        <v>430.2799368512775</v>
+        <v>271.7682177733046</v>
       </c>
       <c r="G43" t="n">
-        <v>263.9970489706581</v>
+        <v>105.4853298926851</v>
       </c>
       <c r="H43" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I43" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J43" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K43" t="n">
-        <v>175.3063357648813</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2032206471523</v>
+        <v>451.4831578130892</v>
       </c>
       <c r="M43" t="n">
-        <v>700.1097560482312</v>
+        <v>889.3896932141681</v>
       </c>
       <c r="N43" t="n">
-        <v>1126.056631485661</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O43" t="n">
-        <v>1519.648052162955</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P43" t="n">
         <v>1768.392458898498</v>
@@ -7596,25 +7596,25 @@
         <v>1745.279268752168</v>
       </c>
       <c r="S43" t="n">
-        <v>1685.670809509089</v>
+        <v>1575.748442655586</v>
       </c>
       <c r="T43" t="n">
-        <v>1685.670809509089</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="U43" t="n">
-        <v>1685.670809509089</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="V43" t="n">
-        <v>1685.670809509089</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="W43" t="n">
-        <v>1406.601145017963</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="X43" t="n">
-        <v>1168.257282877647</v>
+        <v>1340.333580915047</v>
       </c>
       <c r="Y43" t="n">
-        <v>943.5215842664111</v>
+        <v>1115.597882303812</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1155.360683429091</v>
+        <v>1386.406127457371</v>
       </c>
       <c r="C44" t="n">
-        <v>1155.360683429091</v>
+        <v>1163.129497210657</v>
       </c>
       <c r="D44" t="n">
-        <v>1155.360683429091</v>
+        <v>1163.129497210657</v>
       </c>
       <c r="E44" t="n">
-        <v>1155.360683429091</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="F44" t="n">
-        <v>734.3302713827786</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G44" t="n">
         <v>327.7588696812413</v>
@@ -7648,16 +7648,16 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J44" t="n">
-        <v>142.5703854689896</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K44" t="n">
-        <v>323.2290557446586</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L44" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064783</v>
       </c>
       <c r="M44" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152971</v>
       </c>
       <c r="N44" t="n">
         <v>1126.349039004049</v>
@@ -7675,25 +7675,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S44" t="n">
-        <v>1751.885715616416</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T44" t="n">
-        <v>1539.120984293922</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="U44" t="n">
-        <v>1539.120984293922</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="V44" t="n">
-        <v>1539.120984293922</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="W44" t="n">
-        <v>1155.360683429091</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="X44" t="n">
-        <v>1155.360683429091</v>
+        <v>1386.406127457371</v>
       </c>
       <c r="Y44" t="n">
-        <v>1155.360683429091</v>
+        <v>1386.406127457371</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>445.5543329492897</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C45" t="n">
-        <v>311.5592616982354</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D45" t="n">
-        <v>194.6621039176278</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E45" t="n">
-        <v>74.16928790995578</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F45" t="n">
         <v>35.74099050576837</v>
@@ -7727,52 +7727,52 @@
         <v>54.34778796170226</v>
       </c>
       <c r="J45" t="n">
-        <v>170.2194754076013</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K45" t="n">
-        <v>297.5947177216659</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L45" t="n">
-        <v>487.6270792619881</v>
+        <v>671.4294235586129</v>
       </c>
       <c r="M45" t="n">
-        <v>717.2254135418787</v>
+        <v>901.0277578385035</v>
       </c>
       <c r="N45" t="n">
-        <v>958.7360337298695</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O45" t="n">
-        <v>1170.672051216937</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P45" t="n">
-        <v>1332.939498031135</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R45" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V45" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W45" t="n">
-        <v>921.5853070821535</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X45" t="n">
-        <v>745.2593252210463</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y45" t="n">
-        <v>585.8573655848763</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>945.1203675683325</v>
+        <v>532.3763039651411</v>
       </c>
       <c r="C46" t="n">
-        <v>915.3165225494567</v>
+        <v>361.2829315268576</v>
       </c>
       <c r="D46" t="n">
-        <v>755.8218778723667</v>
+        <v>361.2829315268576</v>
       </c>
       <c r="E46" t="n">
-        <v>594.9110627406862</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="F46" t="n">
-        <v>430.2799368512775</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G46" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H46" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542365</v>
       </c>
       <c r="K46" t="n">
-        <v>381.5865293505954</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L46" t="n">
-        <v>468.4834142328664</v>
+        <v>511.180968250839</v>
       </c>
       <c r="M46" t="n">
-        <v>906.3899496339453</v>
+        <v>949.0875036519178</v>
       </c>
       <c r="N46" t="n">
-        <v>1332.336825071375</v>
+        <v>1375.034379089347</v>
       </c>
       <c r="O46" t="n">
-        <v>1708.927989328892</v>
+        <v>1708.927989328891</v>
       </c>
       <c r="P46" t="n">
         <v>1768.392458898498</v>
@@ -7830,28 +7830,28 @@
         <v>1787.049525288418</v>
       </c>
       <c r="R46" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S46" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T46" t="n">
-        <v>1745.279268752168</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U46" t="n">
-        <v>1462.533894199775</v>
+        <v>1268.889288995485</v>
       </c>
       <c r="V46" t="n">
-        <v>1462.533894199775</v>
+        <v>1223.881373461546</v>
       </c>
       <c r="W46" t="n">
-        <v>1183.464229708649</v>
+        <v>944.8117089704208</v>
       </c>
       <c r="X46" t="n">
-        <v>945.1203675683325</v>
+        <v>944.8117089704208</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.1203675683325</v>
+        <v>720.0760103591855</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.970713529054045</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>214.8448719484778</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>202.8122599200936</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>19.22508859755294</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>348.0239209944261</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>24.61722788224048</v>
       </c>
       <c r="L13" t="n">
-        <v>256.8497987851246</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
@@ -8865,7 +8865,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>163.2769745827958</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8105009783448</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>319.3229224358848</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>239.1938448731944</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>190.7525194816463</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>24.61722788224013</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
@@ -9339,7 +9339,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>256.8497987851249</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>8.313350008393172e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>204.1966244844917</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>232.6855959816327</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>83.09947510496502</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>341.7678452913544</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>257.9565141222138</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>238.3528656717309</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>238.3528656717309</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>20.5063569774563</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>292.8818554242381</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>343.0521288311769</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>321.4523407766951</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
@@ -9804,19 +9804,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>196.787047114272</v>
       </c>
       <c r="O25" t="n">
-        <v>287.9455478891821</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>110.0744140796688</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>238.3528656717306</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>157.5111761007955</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>196.7870471142715</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>178.052047047741</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>110.0744140796688</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>238.3528656717308</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>157.5111761007959</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>196.7870471142715</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>178.0520470477412</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>110.074414079669</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>225.3064842911558</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>13.04638138057487</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2397745880162461</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10518,13 +10518,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>294.1429765186073</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>112.3941039857851</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>318.1005203988069</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>29.92340059561872</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>342.3494572506993</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>256.8497987851244</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.970713529054045</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>101.8942200099476</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>256.8497987851246</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,7 +10995,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>257.9565141222126</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>11.12865569063536</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>318.100520398807</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>83.09947510496431</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>256.8497987851246</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11235,7 +11235,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>191.1918557231688</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>60.47076735152366</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>357.6167082096171</v>
+        <v>83.09947510496409</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -11469,7 +11469,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>301.0853565646097</v>
+        <v>257.9565141222129</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>324.2540487010953</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>192.149665580216</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>69.82626658917491</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>104.7777180703237</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>69.82626658917428</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23433,10 +23433,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>112.1835141470103</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>70.18705464668915</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.54142099538416</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23551,16 +23551,16 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>209.1058762542485</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
-        <v>15.26572877438367</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>69.82626658917476</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>72.31393878246212</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23703,10 +23703,10 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S16" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>67.37566774392431</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>270.5139567091252</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>289.0568416728731</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T17" t="n">
         <v>210.6370840092685</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>69.82626658917491</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>69.82626658917474</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>110.4150327861755</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>86.37808034979749</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>129.395385570082</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>306.462296001444</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>267.347388506669</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
         <v>3.166568202456233</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>69.82626658917405</v>
       </c>
       <c r="T21" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>80.46624897839607</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24138,13 +24138,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40.19924410047608</v>
       </c>
       <c r="H22" t="n">
-        <v>75.97301180894168</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
         <v>86.37808034979749</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>77.42639670912007</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>74.25982850666367</v>
       </c>
       <c r="H23" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.166568202456233</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>46.56581623027701</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5954175304433</v>
+        <v>45.23661051547496</v>
       </c>
       <c r="I25" t="n">
         <v>86.37808034979749</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.093658828577903</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>165.4624953211643</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>102.9466427987173</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5954175304433</v>
+        <v>39.85110294150284</v>
       </c>
       <c r="I28" t="n">
         <v>86.37808034979749</v>
@@ -24651,7 +24651,7 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>115.1999551566345</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24697,10 +24697,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166568202456233</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>92.67124798532898</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>129.6949598874552</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
         <v>86.37808034979749</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.35255397088749</v>
+        <v>31.45209632789966</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>72.17343143001182</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>285.9311321812619</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>117.7073914052914</v>
       </c>
       <c r="U32" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>43.93317206883643</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.48095440745237</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.35255397088749</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>223.828693867027</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
         <v>285.9311321812619</v>
@@ -25207,19 +25207,19 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T35" t="n">
-        <v>210.6370840092685</v>
+        <v>116.0008684762736</v>
       </c>
       <c r="U35" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>69.82626658917476</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>80.46624897839637</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S37" t="n">
-        <v>73.17205709959882</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>138.7160322610248</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>39.59063360496356</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25399,16 +25399,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>3.166568202456233</v>
@@ -25447,19 +25447,19 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>40.34975944893108</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>128.8319255745392</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>69.82626658917536</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>69.3843645637635</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>123.2911790432742</v>
       </c>
       <c r="I40" t="n">
         <v>86.37808034979749</v>
@@ -25599,22 +25599,22 @@
         <v>41.35255397088749</v>
       </c>
       <c r="S40" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>391.0528812885922</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>278.1991478266666</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>285.9311321812619</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T41" t="n">
         <v>210.6370840092685</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,13 +25760,13 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T42" t="n">
-        <v>147.9208493129277</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>88.91519032756315</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.54852153739571</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>108.8231431849675</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9179208068699</v>
@@ -25848,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>184.979480835616</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.45763463843435</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
         <v>254.319061736559</v>
@@ -25927,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>69.82626658917491</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>104.7777180703237</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>69.82626658917496</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.8766321452136</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.35255397088749</v>
       </c>
       <c r="S46" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>226.5890512312739</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>422060.8472814603</v>
+        <v>422060.8472814602</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>422060.8472814602</v>
+        <v>422060.8472814604</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>471758.3874866508</v>
+        <v>471758.387486651</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>471758.3874866508</v>
+        <v>471758.3874866507</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>471758.3874866508</v>
+        <v>471758.3874866507</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>422060.8472814601</v>
+        <v>422060.8472814603</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>422060.8472814602</v>
+        <v>422060.8472814601</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>421206.3036207486</v>
+        <v>421206.3036207484</v>
       </c>
       <c r="C2" t="n">
+        <v>421206.3036207484</v>
+      </c>
+      <c r="D2" t="n">
         <v>421206.3036207485</v>
-      </c>
-      <c r="D2" t="n">
-        <v>421206.3036207483</v>
       </c>
       <c r="E2" t="n">
         <v>239311.0683886908</v>
@@ -26331,25 +26331,25 @@
         <v>239311.0683886908</v>
       </c>
       <c r="H2" t="n">
-        <v>239311.0683886906</v>
+        <v>239311.0683886908</v>
       </c>
       <c r="I2" t="n">
+        <v>261480.6235705883</v>
+      </c>
+      <c r="J2" t="n">
+        <v>261480.6235705883</v>
+      </c>
+      <c r="K2" t="n">
+        <v>261480.6235705883</v>
+      </c>
+      <c r="L2" t="n">
         <v>261480.6235705882</v>
-      </c>
-      <c r="J2" t="n">
-        <v>261480.6235705882</v>
-      </c>
-      <c r="K2" t="n">
-        <v>261480.6235705882</v>
-      </c>
-      <c r="L2" t="n">
-        <v>261480.6235705883</v>
       </c>
       <c r="M2" t="n">
         <v>239311.0683886907</v>
       </c>
       <c r="N2" t="n">
-        <v>239311.0683886907</v>
+        <v>239311.0683886908</v>
       </c>
       <c r="O2" t="n">
         <v>239311.0683886908</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.355963044</v>
+        <v>560128.3559630441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723709</v>
+        <v>16007.44950723705</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685872</v>
+        <v>96333.8238368585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>17460.29606878303</v>
       </c>
       <c r="H4" t="n">
-        <v>17460.29606878303</v>
+        <v>17460.29606878307</v>
       </c>
       <c r="I4" t="n">
-        <v>29692.32678219058</v>
+        <v>29692.32678219059</v>
       </c>
       <c r="J4" t="n">
-        <v>29692.32678219057</v>
+        <v>29692.32678219056</v>
       </c>
       <c r="K4" t="n">
-        <v>29692.32678219058</v>
+        <v>29692.32678219056</v>
       </c>
       <c r="L4" t="n">
         <v>29692.32678219058</v>
       </c>
       <c r="M4" t="n">
-        <v>17460.29606878302</v>
+        <v>17460.29606878303</v>
       </c>
       <c r="N4" t="n">
-        <v>17460.29606878302</v>
+        <v>17460.29606878303</v>
       </c>
       <c r="O4" t="n">
         <v>17460.29606878303</v>
       </c>
       <c r="P4" t="n">
-        <v>17460.29606878303</v>
+        <v>17460.29606878302</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="F5" t="n">
         <v>38742.42450886573</v>
@@ -26487,7 +26487,7 @@
         <v>38742.42450886573</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,10 +26502,10 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="O5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39131.51325293363</v>
+        <v>39122.71356730405</v>
       </c>
       <c r="C6" t="n">
-        <v>39131.51325293351</v>
+        <v>39122.71356730405</v>
       </c>
       <c r="D6" t="n">
-        <v>39131.51325293339</v>
+        <v>39122.71356730416</v>
       </c>
       <c r="E6" t="n">
-        <v>-377020.0081520019</v>
+        <v>-377728.4048962163</v>
       </c>
       <c r="F6" t="n">
-        <v>183108.347811042</v>
+        <v>182399.9510668278</v>
       </c>
       <c r="G6" t="n">
-        <v>183108.347811042</v>
+        <v>182399.9510668278</v>
       </c>
       <c r="H6" t="n">
-        <v>183108.3478110419</v>
+        <v>182399.9510668278</v>
       </c>
       <c r="I6" t="n">
-        <v>173378.4901981844</v>
+        <v>172755.3609739006</v>
       </c>
       <c r="J6" t="n">
-        <v>189385.9397054215</v>
+        <v>188762.8104811377</v>
       </c>
       <c r="K6" t="n">
-        <v>189385.9397054215</v>
+        <v>188762.8104811378</v>
       </c>
       <c r="L6" t="n">
-        <v>189385.9397054216</v>
+        <v>188762.8104811377</v>
       </c>
       <c r="M6" t="n">
-        <v>86774.52397418329</v>
+        <v>86066.12722996926</v>
       </c>
       <c r="N6" t="n">
-        <v>183108.347811042</v>
+        <v>182399.9510668278</v>
       </c>
       <c r="O6" t="n">
-        <v>183108.3478110421</v>
+        <v>182399.9510668278</v>
       </c>
       <c r="P6" t="n">
-        <v>183108.347811042</v>
+        <v>182399.9510668278</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="F3" t="n">
         <v>531.159253416595</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
         <v>446.7623813221046</v>
@@ -26807,7 +26807,7 @@
         <v>446.7623813221046</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="I4" t="n">
         <v>506.9586407647101</v>
@@ -26816,22 +26816,22 @@
         <v>506.95864076471</v>
       </c>
       <c r="K4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="L4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221046</v>
       </c>
       <c r="O4" t="n">
         <v>446.7623813221046</v>
       </c>
       <c r="P4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221045</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260548</v>
+        <v>60.19625944260531</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.5661218794992</v>
+        <v>386.5661218794983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221046</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,10 +31758,10 @@
         <v>21.86828021729729</v>
       </c>
       <c r="I11" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J11" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K11" t="n">
         <v>271.6198950021757</v>
@@ -31770,31 +31770,31 @@
         <v>336.9684980242787</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N11" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O11" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P11" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R11" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S11" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T11" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>1.142493488480978</v>
       </c>
       <c r="H12" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I12" t="n">
         <v>39.33585037094596</v>
@@ -31843,37 +31843,37 @@
         <v>107.9405799796875</v>
       </c>
       <c r="K12" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L12" t="n">
-        <v>248.0664041546088</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M12" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N12" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O12" t="n">
-        <v>271.8282643404719</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P12" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q12" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R12" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S12" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T12" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H13" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I13" t="n">
         <v>28.80450508691962</v>
       </c>
       <c r="J13" t="n">
-        <v>67.71845104624359</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K13" t="n">
         <v>111.2822173551489</v>
@@ -31940,19 +31940,19 @@
         <v>115.8449624172849</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R13" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S13" t="n">
         <v>16.69233260327233</v>
       </c>
       <c r="T13" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K11" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L11" t="n">
         <v>241.4830999614339</v>
       </c>
       <c r="M11" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O11" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P11" t="n">
         <v>213.4113988914702</v>
@@ -35433,7 +35433,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R11" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968749</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K12" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L12" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M12" t="n">
-        <v>446.7623813221046</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>446.7623813221046</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O12" t="n">
-        <v>233.3018739380249</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.14567311248754</v>
+        <v>437.1695941069137</v>
       </c>
       <c r="R12" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.28530536328817</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K13" t="n">
-        <v>59.03184779608206</v>
+        <v>83.64907567832256</v>
       </c>
       <c r="L13" t="n">
-        <v>344.6244299793377</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N13" t="n">
         <v>430.2493691287167</v>
@@ -35585,10 +35585,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P13" t="n">
-        <v>60.06512077738008</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.84552160598028</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J15" t="n">
-        <v>219.8483157624833</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
         <v>128.6618609232976</v>
       </c>
       <c r="L15" t="n">
-        <v>446.7623813221046</v>
+        <v>191.9518803437598</v>
       </c>
       <c r="M15" t="n">
         <v>231.9175093736268</v>
@@ -35746,10 +35746,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R15" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K16" t="n">
         <v>267.3956797008438</v>
       </c>
       <c r="L16" t="n">
-        <v>87.77463119421316</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M16" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N16" t="n">
-        <v>430.2493691287167</v>
+        <v>414.184108284212</v>
       </c>
       <c r="O16" t="n">
         <v>79.30975884702369</v>
       </c>
       <c r="P16" t="n">
-        <v>299.2589656505745</v>
+        <v>60.06512077738008</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598028</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J18" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
-        <v>319.4143804049439</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L18" t="n">
         <v>191.9518803437598</v>
@@ -35983,10 +35983,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R18" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>16.28530536328817</v>
       </c>
       <c r="K19" t="n">
-        <v>83.64907567832219</v>
+        <v>59.03184779608206</v>
       </c>
       <c r="L19" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421316</v>
       </c>
       <c r="M19" t="n">
-        <v>93.87897564322563</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N19" t="n">
         <v>430.2493691287167</v>
@@ -36059,7 +36059,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>316.914919562505</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84552160598028</v>
@@ -36144,7 +36144,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R20" t="n">
-        <v>46.82024895384019</v>
+        <v>46.82024895384088</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J21" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K21" t="n">
         <v>128.6618609232976</v>
@@ -36208,22 +36208,22 @@
         <v>191.9518803437598</v>
       </c>
       <c r="M21" t="n">
-        <v>436.1141338581185</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N21" t="n">
         <v>243.950121402011</v>
       </c>
       <c r="O21" t="n">
-        <v>446.7623813221046</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P21" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R21" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>59.03184779608206</v>
       </c>
       <c r="L22" t="n">
-        <v>87.77463119421316</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M22" t="n">
-        <v>435.64682093458</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N22" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O22" t="n">
-        <v>397.5670915932262</v>
+        <v>337.2662729692374</v>
       </c>
       <c r="P22" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738008</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84552160598028</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325606</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289585</v>
@@ -36372,7 +36372,7 @@
         <v>288.0970498876283</v>
       </c>
       <c r="O23" t="n">
-        <v>504.9394062634163</v>
+        <v>266.5865405916855</v>
       </c>
       <c r="P23" t="n">
         <v>213.4113988914702</v>
@@ -36436,7 +36436,7 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J24" t="n">
-        <v>77.07769815714379</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K24" t="n">
         <v>128.6618609232976</v>
@@ -36451,16 +36451,16 @@
         <v>243.950121402011</v>
       </c>
       <c r="O24" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P24" t="n">
-        <v>506.9586407647101</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.14567311248754</v>
+        <v>410.5980138891827</v>
       </c>
       <c r="R24" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K25" t="n">
         <v>267.3956797008438</v>
@@ -36524,19 +36524,19 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M25" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322563</v>
       </c>
       <c r="N25" t="n">
-        <v>430.2493691287167</v>
+        <v>291.6482329625992</v>
       </c>
       <c r="O25" t="n">
-        <v>367.2553067362057</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>60.06512077738008</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404985</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289585</v>
@@ -36609,7 +36609,7 @@
         <v>288.0970498876283</v>
       </c>
       <c r="O26" t="n">
-        <v>504.9394062634161</v>
+        <v>266.5865405916855</v>
       </c>
       <c r="P26" t="n">
         <v>213.4113988914702</v>
@@ -36618,7 +36618,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R26" t="n">
-        <v>46.82024895384005</v>
+        <v>175.0987005459017</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
         <v>128.6618609232976</v>
@@ -36691,10 +36691,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
-        <v>321.4176880343286</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>499.216538772865</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R27" t="n">
         <v>100.7929153791732</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K28" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L28" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322563</v>
       </c>
       <c r="N28" t="n">
-        <v>430.2493691287167</v>
+        <v>291.6482329625987</v>
       </c>
       <c r="O28" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>238.1171678251211</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404985</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289585</v>
@@ -36852,10 +36852,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q29" t="n">
-        <v>378.9089058048052</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
-        <v>46.82024895384005</v>
+        <v>175.0987005459017</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
-        <v>286.1730370240935</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L30" t="n">
         <v>191.9518803437598</v>
@@ -36931,7 +36931,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>499.216538772865</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R30" t="n">
         <v>100.7929153791732</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.28530536328817</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M31" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322563</v>
       </c>
       <c r="N31" t="n">
-        <v>430.2493691287167</v>
+        <v>291.6482329625987</v>
       </c>
       <c r="O31" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>238.1171678251213</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>217.9828938404987</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K32" t="n">
         <v>182.4835053289585</v>
@@ -37077,10 +37077,10 @@
         <v>241.4830999614339</v>
       </c>
       <c r="M32" t="n">
-        <v>281.6521564735543</v>
+        <v>506.95864076471</v>
       </c>
       <c r="N32" t="n">
-        <v>288.0970498876283</v>
+        <v>301.1434312682031</v>
       </c>
       <c r="O32" t="n">
         <v>266.5865405916855</v>
@@ -37092,7 +37092,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R32" t="n">
-        <v>175.0987005459017</v>
+        <v>46.82024895384005</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
-        <v>128.9016355113139</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L33" t="n">
         <v>191.9518803437598</v>
@@ -37168,10 +37168,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>499.216538772865</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R33" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K34" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L34" t="n">
         <v>404.9252486033274</v>
@@ -37238,13 +37238,13 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N34" t="n">
-        <v>430.2493691287167</v>
+        <v>389.0041623669345</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702369</v>
       </c>
       <c r="P34" t="n">
-        <v>172.4592247631652</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84552160598028</v>
@@ -37329,7 +37329,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384019</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J36" t="n">
-        <v>56.57134117968749</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
-        <v>446.7623813221045</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L36" t="n">
-        <v>221.8752809393785</v>
+        <v>191.9518803437598</v>
       </c>
       <c r="M36" t="n">
         <v>231.9175093736268</v>
@@ -37405,7 +37405,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R36" t="n">
         <v>100.7929153791732</v>
@@ -37466,25 +37466,25 @@
         <v>16.28530536328817</v>
       </c>
       <c r="K37" t="n">
-        <v>59.03184779608206</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L37" t="n">
-        <v>87.77463119421316</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M37" t="n">
-        <v>442.3298337384635</v>
+        <v>436.2284328939249</v>
       </c>
       <c r="N37" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832725</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702369</v>
       </c>
       <c r="P37" t="n">
-        <v>316.9149195625045</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84552160598028</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R38" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384019</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.79474490498373</v>
       </c>
       <c r="J39" t="n">
         <v>302.7010421641655</v>
@@ -37630,7 +37630,7 @@
         <v>191.9518803437598</v>
       </c>
       <c r="M39" t="n">
-        <v>333.8117293835743</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N39" t="n">
         <v>243.950121402011</v>
@@ -37642,7 +37642,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R39" t="n">
         <v>100.7929153791732</v>
@@ -37706,7 +37706,7 @@
         <v>59.03184779608206</v>
       </c>
       <c r="L40" t="n">
-        <v>404.9252486033274</v>
+        <v>344.6244299793377</v>
       </c>
       <c r="M40" t="n">
         <v>442.3298337384635</v>
@@ -37715,7 +37715,7 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
-        <v>337.2662729692363</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
         <v>60.06512077738008</v>
@@ -37858,10 +37858,10 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J42" t="n">
-        <v>67.69999687032285</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
-        <v>446.7623813221046</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L42" t="n">
         <v>191.9518803437598</v>
@@ -37879,7 +37879,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.14567311248754</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R42" t="n">
         <v>100.7929153791732</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328817</v>
       </c>
       <c r="K43" t="n">
         <v>59.03184779608206</v>
       </c>
       <c r="L43" t="n">
-        <v>87.77463119421316</v>
+        <v>344.6244299793377</v>
       </c>
       <c r="M43" t="n">
         <v>442.3298337384635</v>
@@ -37955,7 +37955,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
-        <v>251.2569765005489</v>
+        <v>60.06512077738008</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84552160598028</v>
@@ -38095,7 +38095,7 @@
         <v>18.79474490498373</v>
       </c>
       <c r="J45" t="n">
-        <v>117.0421085312111</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K45" t="n">
         <v>128.6618609232976</v>
@@ -38116,10 +38116,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>446.7623813221046</v>
+        <v>172.2451482174516</v>
       </c>
       <c r="R45" t="n">
-        <v>11.93461590747498</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328817</v>
       </c>
       <c r="K46" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608206</v>
       </c>
       <c r="L46" t="n">
-        <v>87.77463119421316</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M46" t="n">
         <v>442.3298337384635</v>
@@ -38189,7 +38189,7 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O46" t="n">
-        <v>380.3951154116334</v>
+        <v>337.2662729692365</v>
       </c>
       <c r="P46" t="n">
         <v>60.06512077738008</v>
